--- a/src/main/resources/testData.xlsx
+++ b/src/main/resources/testData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mostafa\Desktop\JavaProjects\DemoblazeProject\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E10849D6-6941-49B9-A079-679B46057ABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19A3AEC9-686B-40D5-83C5-1DFCE15252AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
     <t>pass123</t>
   </si>
   <si>
-    <t>test9864</t>
+    <t>Mostafa</t>
   </si>
 </sst>
 </file>
@@ -390,7 +390,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
